--- a/biology/Botanique/Culcasia_sanagensis/Culcasia_sanagensis.xlsx
+++ b/biology/Botanique/Culcasia_sanagensis/Culcasia_sanagensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Culcasia sanagensis est une espèce de plantes de la famille des Araceae et du genre Culcasia, endémique du Cameroun.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique fait référence à la Sanaga, un fleuve du Cameroun.
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est une rampante endémique poussant dans les sous-bois des forêts du Cameroun. On ne lui connaît que 7 localisations, principalement situées dans la Région du Centre, ce qui en fait une espèce potentiellement menacée.
 Elle croît à une altitude située entre 120 et 780 mètres sur un terrain en pente et pierreux.
-Une floraison a été observée en mai et juin. Les fruits apparaissent en février, octobre et novembre[2].
+Une floraison a été observée en mai et juin. Les fruits apparaissent en février, octobre et novembre.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles sont communément utilisées contre les maux d’estomac. Le jus est probablement toxique, il cause de plus une irritation de la peau[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont communément utilisées contre les maux d’estomac. Le jus est probablement toxique, il cause de plus une irritation de la peau.
 </t>
         </is>
       </c>
